--- a/vkg_resources.xlsx
+++ b/vkg_resources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82462\files\pro\pypro\vkg_resource_collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\vkg_resource_collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64535816-A32B-4CB6-827F-C8D366CD65E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7F4B67-3CD5-42C6-A755-C1E969BCF949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2775" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13536" yWindow="5820" windowWidth="14484" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -474,16 +474,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/vkg_resources.xlsx
+++ b/vkg_resources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\vkg_resource_collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82462\files\pro\pypro\vkg_resource_collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7F4B67-3CD5-42C6-A755-C1E969BCF949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87510EC-24B2-4589-BA71-471A56998282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13536" yWindow="5820" windowWidth="14484" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2388" yWindow="3576" windowWidth="24996" windowHeight="30000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>VKG name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,45 @@
   </si>
   <si>
     <t>MySQL</t>
+  </si>
+  <si>
+    <t>https://github.com/chrpin/rodi/tree/master/data/conference_naive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostgreSQL </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodi_cmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodi_conference</t>
+  </si>
+  <si>
+    <t>rodi_mondial</t>
+  </si>
+  <si>
+    <t>rodi_sigkdd</t>
+  </si>
+  <si>
+    <t>rodi_npd</t>
+  </si>
+  <si>
+    <t>https://github.com/chrpin/rodi/tree/master/data/mondial_rel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/chrpin/rodi/tree/master/data/sigkdd_naive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/chrpin/rodi/tree/master/data/npd_user_tests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -411,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -474,6 +513,121 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -483,8 +637,13 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A42A59F8-5ED6-43EA-92A2-EA5E5892CA53}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{B815DDD4-D7AB-45B6-85A9-E3ED8DD47DDD}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{57DE876B-ED3A-4951-B893-FE7E5FBE8586}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{3102FAF7-8DC4-4858-A102-06E6E51498DA}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{77FE26D0-86CF-4CB8-8269-E532DD857590}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{8E44F29F-4812-415C-8255-999C6BE04E5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/vkg_resources.xlsx
+++ b/vkg_resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82462\files\pro\pypro\vkg_resource_collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87510EC-24B2-4589-BA71-471A56998282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FB5A41-4A56-4E74-90BB-01431D8904B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2388" yWindow="3576" windowWidth="24996" windowHeight="30000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
   <si>
     <t>VKG name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,27 +84,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://github.com/chrpin/rodi/tree/master/data/mondial_rel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/chrpin/rodi/tree/master/data/sigkdd_naive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ontop/ontop-examples/tree/master/dke-2022-mapping-patterns/scenarios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cordis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suedtirol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ontop/ontop-examples/tree/master/dke-2022-mapping-patterns/scenarios/suedtirol-open-data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canonical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ontop/ontop-examples/tree/master/eswc-2018-canonical-iri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dblp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ontop/ontop-examples/tree/master/swj-2017-vig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ontop/ontop-examples/tree/master/caise-2021-patterns/scenarios/npd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ontop/ontop-examples/tree/master/caise-2021-patterns/scenarios/cordis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL, PostgreSQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>External DB data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ontop/npd-benchmark/tree/master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wbsg.informatik.uni-mannheim.de/bizer/berlinsparqlbenchmark/V1/results/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>rodi_conference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rodi_mondial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rodi_sigkdd</t>
-  </si>
-  <si>
-    <t>rodi_npd</t>
-  </si>
-  <si>
-    <t>https://github.com/chrpin/rodi/tree/master/data/mondial_rel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/chrpin/rodi/tree/master/data/sigkdd_naive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/chrpin/rodi/tree/master/data/npd_user_tests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bsbm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/dinglinfang/suedTirolOpenDataOBDA/tree/master/db/sql</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +211,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,29 +237,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -450,200 +591,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="34.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="59.21875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H1" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H1 B1:E1048576 H10 H7">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"√"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:F1048576" xr:uid="{D51DA352-EF07-47BC-994A-A9209E55C135}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:E1048576" xr:uid="{D51DA352-EF07-47BC-994A-A9209E55C135}">
       <formula1>"√, ×, ○"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{A42A59F8-5ED6-43EA-92A2-EA5E5892CA53}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{B815DDD4-D7AB-45B6-85A9-E3ED8DD47DDD}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{57DE876B-ED3A-4951-B893-FE7E5FBE8586}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{3102FAF7-8DC4-4858-A102-06E6E51498DA}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{77FE26D0-86CF-4CB8-8269-E532DD857590}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{8E44F29F-4812-415C-8255-999C6BE04E5C}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{A42A59F8-5ED6-43EA-92A2-EA5E5892CA53}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{B815DDD4-D7AB-45B6-85A9-E3ED8DD47DDD}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{57DE876B-ED3A-4951-B893-FE7E5FBE8586}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{3102FAF7-8DC4-4858-A102-06E6E51498DA}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{77FE26D0-86CF-4CB8-8269-E532DD857590}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{FEE770DC-D928-4E95-A479-2041B79FDF1C}"/>
+    <hyperlink ref="G10" r:id="rId7" xr:uid="{5016E3AD-CE68-4A01-9BB0-1DA9C8E8368A}"/>
+    <hyperlink ref="G11" r:id="rId8" xr:uid="{982A5FB9-0170-4A3B-BBD6-28E9FE335B81}"/>
+    <hyperlink ref="G12" r:id="rId9" xr:uid="{E9CA8B5F-5737-454C-8DAF-7B9B448463D0}"/>
+    <hyperlink ref="G8" r:id="rId10" xr:uid="{969CFE85-8E26-4547-BDAD-2A529A388871}"/>
+    <hyperlink ref="G9" r:id="rId11" xr:uid="{FA4D526F-05C2-4CB9-A775-5EB01C6BBB24}"/>
+    <hyperlink ref="H8" r:id="rId12" xr:uid="{58EB2157-42C5-425F-A32D-C43C58A00134}"/>
+    <hyperlink ref="H10" r:id="rId13" xr:uid="{C078996D-3669-4F61-9EB1-A0763844F16C}"/>
+    <hyperlink ref="H7" r:id="rId14" xr:uid="{0A6545F6-7AC1-46E7-AAA7-4F06E0E77C8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/vkg_resources.xlsx
+++ b/vkg_resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82462\files\pro\pypro\vkg_resource_collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FB5A41-4A56-4E74-90BB-01431D8904B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC64C38-E2D6-4DB8-A41A-F05E11F80A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
   <si>
     <t>VKG name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Internal Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>√</t>
   </si>
   <si>
@@ -181,6 +177,34 @@
   </si>
   <si>
     <t>https://github.com/dinglinfang/suedTirolOpenDataOBDA/tree/master/db/sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#classes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VKG Components</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ontology Statistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#object property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#data property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#individual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internal Data Available</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -252,12 +276,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -272,15 +353,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -293,13 +368,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -591,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -603,335 +705,508 @@
     <col min="2" max="2" width="12.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="59.21875" style="15" customWidth="1"/>
-    <col min="8" max="8" width="25.88671875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="59.21875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="25.88671875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G3" s="19">
+        <v>69</v>
+      </c>
+      <c r="H3" s="19">
+        <v>35</v>
+      </c>
+      <c r="I3" s="19">
+        <v>9</v>
+      </c>
+      <c r="J3" s="19">
+        <v>58</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="19">
+        <v>30</v>
+      </c>
+      <c r="H4" s="19">
+        <v>49</v>
+      </c>
+      <c r="I4" s="19">
+        <v>11</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="19">
+        <v>59</v>
+      </c>
+      <c r="H5" s="19">
+        <v>46</v>
+      </c>
+      <c r="I5" s="19">
+        <v>22</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="19">
+        <v>20</v>
+      </c>
+      <c r="H6" s="19">
+        <v>44</v>
+      </c>
+      <c r="I6" s="19">
+        <v>27</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="19">
+        <v>49</v>
+      </c>
+      <c r="H7" s="19">
+        <v>21</v>
+      </c>
+      <c r="I7" s="19">
+        <v>18</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="19">
+        <v>8</v>
+      </c>
+      <c r="H8" s="19">
+        <v>10</v>
+      </c>
+      <c r="I8" s="19">
+        <v>30</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="19">
+        <v>342</v>
+      </c>
+      <c r="H9" s="19">
+        <v>142</v>
+      </c>
+      <c r="I9" s="19">
+        <v>238</v>
+      </c>
+      <c r="J9" s="19">
+        <v>855</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="19">
+        <v>24</v>
+      </c>
+      <c r="H10" s="19">
+        <v>22</v>
+      </c>
+      <c r="I10" s="19">
+        <v>24</v>
+      </c>
+      <c r="J10" s="19">
         <v>2</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="K10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="7"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="9"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="19">
+        <v>37</v>
+      </c>
+      <c r="H11" s="19">
+        <v>5</v>
+      </c>
+      <c r="I11" s="19">
+        <v>15</v>
+      </c>
+      <c r="J11" s="19">
+        <v>6</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="14" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="F12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="19">
+        <v>4</v>
+      </c>
+      <c r="H12" s="19">
+        <v>4</v>
+      </c>
+      <c r="I12" s="19">
+        <v>4</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="14" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="14" t="s">
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="19">
+        <v>55</v>
+      </c>
+      <c r="H13" s="19">
+        <v>44</v>
+      </c>
+      <c r="I13" s="19">
         <v>30</v>
       </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="J13" s="19">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="9"/>
+      <c r="L13" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:K2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H1 B1:E1048576 H10 H7">
+  <conditionalFormatting sqref="L1 L8 L11 B2:E1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"√"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:E1048576" xr:uid="{D51DA352-EF07-47BC-994A-A9209E55C135}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:E1048576" xr:uid="{D51DA352-EF07-47BC-994A-A9209E55C135}">
       <formula1>"√, ×, ○"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{A42A59F8-5ED6-43EA-92A2-EA5E5892CA53}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{B815DDD4-D7AB-45B6-85A9-E3ED8DD47DDD}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{57DE876B-ED3A-4951-B893-FE7E5FBE8586}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{3102FAF7-8DC4-4858-A102-06E6E51498DA}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{77FE26D0-86CF-4CB8-8269-E532DD857590}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{FEE770DC-D928-4E95-A479-2041B79FDF1C}"/>
-    <hyperlink ref="G10" r:id="rId7" xr:uid="{5016E3AD-CE68-4A01-9BB0-1DA9C8E8368A}"/>
-    <hyperlink ref="G11" r:id="rId8" xr:uid="{982A5FB9-0170-4A3B-BBD6-28E9FE335B81}"/>
-    <hyperlink ref="G12" r:id="rId9" xr:uid="{E9CA8B5F-5737-454C-8DAF-7B9B448463D0}"/>
-    <hyperlink ref="G8" r:id="rId10" xr:uid="{969CFE85-8E26-4547-BDAD-2A529A388871}"/>
-    <hyperlink ref="G9" r:id="rId11" xr:uid="{FA4D526F-05C2-4CB9-A775-5EB01C6BBB24}"/>
-    <hyperlink ref="H8" r:id="rId12" xr:uid="{58EB2157-42C5-425F-A32D-C43C58A00134}"/>
-    <hyperlink ref="H10" r:id="rId13" xr:uid="{C078996D-3669-4F61-9EB1-A0763844F16C}"/>
-    <hyperlink ref="H7" r:id="rId14" xr:uid="{0A6545F6-7AC1-46E7-AAA7-4F06E0E77C8A}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{A42A59F8-5ED6-43EA-92A2-EA5E5892CA53}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{B815DDD4-D7AB-45B6-85A9-E3ED8DD47DDD}"/>
+    <hyperlink ref="K5" r:id="rId3" xr:uid="{57DE876B-ED3A-4951-B893-FE7E5FBE8586}"/>
+    <hyperlink ref="K6" r:id="rId4" xr:uid="{3102FAF7-8DC4-4858-A102-06E6E51498DA}"/>
+    <hyperlink ref="K7" r:id="rId5" xr:uid="{77FE26D0-86CF-4CB8-8269-E532DD857590}"/>
+    <hyperlink ref="K8" r:id="rId6" xr:uid="{FEE770DC-D928-4E95-A479-2041B79FDF1C}"/>
+    <hyperlink ref="K11" r:id="rId7" xr:uid="{5016E3AD-CE68-4A01-9BB0-1DA9C8E8368A}"/>
+    <hyperlink ref="K12" r:id="rId8" xr:uid="{982A5FB9-0170-4A3B-BBD6-28E9FE335B81}"/>
+    <hyperlink ref="K13" r:id="rId9" xr:uid="{E9CA8B5F-5737-454C-8DAF-7B9B448463D0}"/>
+    <hyperlink ref="K9" r:id="rId10" xr:uid="{969CFE85-8E26-4547-BDAD-2A529A388871}"/>
+    <hyperlink ref="K10" r:id="rId11" xr:uid="{FA4D526F-05C2-4CB9-A775-5EB01C6BBB24}"/>
+    <hyperlink ref="L9" r:id="rId12" xr:uid="{58EB2157-42C5-425F-A32D-C43C58A00134}"/>
+    <hyperlink ref="L11" r:id="rId13" xr:uid="{C078996D-3669-4F61-9EB1-A0763844F16C}"/>
+    <hyperlink ref="L8" r:id="rId14" xr:uid="{0A6545F6-7AC1-46E7-AAA7-4F06E0E77C8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>

--- a/vkg_resources.xlsx
+++ b/vkg_resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82462\files\pro\pypro\vkg_resource_collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC64C38-E2D6-4DB8-A41A-F05E11F80A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1C6B4E-40D3-4C44-A854-08D318E58FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,6 +374,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -388,21 +403,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -696,7 +696,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -707,40 +707,40 @@
     <col min="4" max="4" width="21.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="20" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="15" customWidth="1"/>
     <col min="11" max="11" width="59.21875" style="12" customWidth="1"/>
     <col min="12" max="12" width="25.88671875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="15" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="21" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
@@ -756,20 +756,20 @@
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -790,16 +790,16 @@
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="14">
         <v>69</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="14">
         <v>35</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="14">
         <v>9</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="14">
         <v>58</v>
       </c>
       <c r="K3" s="11" t="s">
@@ -826,16 +826,16 @@
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="14">
         <v>30</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="14">
         <v>49</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="14">
         <v>11</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="14">
         <v>0</v>
       </c>
       <c r="K4" s="11" t="s">
@@ -862,16 +862,16 @@
       <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="14">
         <v>59</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="14">
         <v>46</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="14">
         <v>22</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="14">
         <v>0</v>
       </c>
       <c r="K5" s="11" t="s">
@@ -898,16 +898,16 @@
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="14">
         <v>20</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="14">
         <v>44</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="14">
         <v>27</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="14">
         <v>0</v>
       </c>
       <c r="K6" s="11" t="s">
@@ -934,16 +934,16 @@
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="14">
         <v>49</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="14">
         <v>21</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="14">
         <v>18</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="14">
         <v>0</v>
       </c>
       <c r="K7" s="11" t="s">
@@ -970,16 +970,16 @@
       <c r="F8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="14">
         <v>8</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="14">
         <v>10</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="14">
         <v>30</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="14">
         <v>0</v>
       </c>
       <c r="K8" s="11" t="s">
@@ -1008,16 +1008,16 @@
       <c r="F9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="14">
         <v>342</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="14">
         <v>142</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="14">
         <v>238</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="14">
         <v>855</v>
       </c>
       <c r="K9" s="11" t="s">
@@ -1046,16 +1046,16 @@
       <c r="F10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="14">
         <v>24</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="14">
         <v>22</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="14">
         <v>24</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="14">
         <v>2</v>
       </c>
       <c r="K10" s="11" t="s">
@@ -1082,16 +1082,16 @@
       <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="14">
         <v>37</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="14">
         <v>5</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="14">
         <v>15</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="14">
         <v>6</v>
       </c>
       <c r="K11" s="11" t="s">
@@ -1120,16 +1120,16 @@
       <c r="F12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="14">
         <v>4</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="14">
         <v>4</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="14">
         <v>4</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="14">
         <v>0</v>
       </c>
       <c r="K12" s="11" t="s">
@@ -1156,16 +1156,16 @@
       <c r="F13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="14">
         <v>55</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="14">
         <v>44</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="14">
         <v>30</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="14">
         <v>0</v>
       </c>
       <c r="K13" s="11" t="s">
@@ -1182,7 +1182,7 @@
     <mergeCell ref="K1:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="L1 L8 L11 B2:E1048576">
+  <conditionalFormatting sqref="L1 B2:E1048576 L8 L11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"√"</formula>
     </cfRule>

--- a/vkg_resources.xlsx
+++ b/vkg_resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82462\files\pro\pypro\vkg_resource_collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1C6B4E-40D3-4C44-A854-08D318E58FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11731F1-3373-4744-9EFE-E93665D835BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="48">
   <si>
     <t>VKG name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,14 @@
   </si>
   <si>
     <t>Internal Data Available</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ontopic-vkg/destination-tutorial/tree/master</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -338,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,6 +411,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -693,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1172,6 +1183,29 @@
         <v>27</v>
       </c>
       <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1207,8 +1241,9 @@
     <hyperlink ref="L9" r:id="rId12" xr:uid="{58EB2157-42C5-425F-A32D-C43C58A00134}"/>
     <hyperlink ref="L11" r:id="rId13" xr:uid="{C078996D-3669-4F61-9EB1-A0763844F16C}"/>
     <hyperlink ref="L8" r:id="rId14" xr:uid="{0A6545F6-7AC1-46E7-AAA7-4F06E0E77C8A}"/>
+    <hyperlink ref="K14" r:id="rId15" xr:uid="{7BD30C1C-E9E0-46AB-B011-5EBDB87EC921}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/vkg_resources.xlsx
+++ b/vkg_resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82462\files\pro\pypro\vkg_resource_collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11731F1-3373-4744-9EFE-E93665D835BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9309615-C48C-45EE-8B3D-F1B0295D0BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,7 +707,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/vkg_resources.xlsx
+++ b/vkg_resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82462\files\pro\pypro\vkg_resource_collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9309615-C48C-45EE-8B3D-F1B0295D0BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AF83E0-C666-4E72-8997-FE5305DCF0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2775" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>VKG name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ontology Statistic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#object property</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,6 +209,26 @@
   </si>
   <si>
     <t>https://github.com/ontopic-vkg/destination-tutorial/tree/master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Database Statistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Individual Ontology Statistic (without external ontology)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -261,7 +277,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -288,34 +304,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -324,7 +316,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -335,7 +329,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -346,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,29 +387,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -704,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -721,37 +711,42 @@
     <col min="7" max="7" width="8.5546875" style="15" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" style="15" customWidth="1"/>
     <col min="9" max="9" width="15.88671875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="59.21875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="25.88671875" style="10" customWidth="1"/>
+    <col min="10" max="13" width="12.5546875" style="15" customWidth="1"/>
+    <col min="14" max="14" width="59.21875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="25.88671875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="16" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="20"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="O1" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
+    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
@@ -762,7 +757,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>8</v>
@@ -771,18 +766,27 @@
         <v>39</v>
       </c>
       <c r="H2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="K2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -813,12 +817,21 @@
       <c r="J3" s="14">
         <v>58</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="14">
+        <v>20</v>
+      </c>
+      <c r="L3" s="14">
+        <v>108</v>
+      </c>
+      <c r="M3" s="14">
+        <v>153823</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -849,12 +862,15 @@
       <c r="J4" s="14">
         <v>0</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -885,12 +901,15 @@
       <c r="J5" s="14">
         <v>0</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
@@ -921,12 +940,15 @@
       <c r="J6" s="14">
         <v>0</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
@@ -957,12 +979,15 @@
       <c r="J7" s="14">
         <v>0</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -993,14 +1018,17 @@
       <c r="J8" s="14">
         <v>0</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="O8" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1031,14 +1059,23 @@
       <c r="J9" s="14">
         <v>855</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="14">
+        <v>70</v>
+      </c>
+      <c r="L9" s="14">
+        <v>962</v>
+      </c>
+      <c r="M9" s="14">
+        <v>257271</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="O9" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1069,12 +1106,15 @@
       <c r="J10" s="14">
         <v>2</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1105,14 +1145,17 @@
       <c r="J11" s="14">
         <v>6</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="O11" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1143,12 +1186,15 @@
       <c r="J12" s="14">
         <v>0</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -1179,44 +1225,70 @@
       <c r="J13" s="14">
         <v>0</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="23" t="s">
-        <v>47</v>
-      </c>
+      <c r="G14" s="14">
+        <v>7</v>
+      </c>
+      <c r="H14" s="14">
+        <v>4</v>
+      </c>
+      <c r="I14" s="14">
+        <v>8</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
+        <v>8</v>
+      </c>
+      <c r="L14" s="14">
+        <v>80</v>
+      </c>
+      <c r="M14" s="14">
+        <v>51117</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="L1:L2"/>
+  <mergeCells count="6">
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="L1 B2:E1048576 L8 L11">
+  <conditionalFormatting sqref="O1 B2:E1048576 O8 O11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"√"</formula>
     </cfRule>
@@ -1227,21 +1299,21 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{A42A59F8-5ED6-43EA-92A2-EA5E5892CA53}"/>
-    <hyperlink ref="K4" r:id="rId2" xr:uid="{B815DDD4-D7AB-45B6-85A9-E3ED8DD47DDD}"/>
-    <hyperlink ref="K5" r:id="rId3" xr:uid="{57DE876B-ED3A-4951-B893-FE7E5FBE8586}"/>
-    <hyperlink ref="K6" r:id="rId4" xr:uid="{3102FAF7-8DC4-4858-A102-06E6E51498DA}"/>
-    <hyperlink ref="K7" r:id="rId5" xr:uid="{77FE26D0-86CF-4CB8-8269-E532DD857590}"/>
-    <hyperlink ref="K8" r:id="rId6" xr:uid="{FEE770DC-D928-4E95-A479-2041B79FDF1C}"/>
-    <hyperlink ref="K11" r:id="rId7" xr:uid="{5016E3AD-CE68-4A01-9BB0-1DA9C8E8368A}"/>
-    <hyperlink ref="K12" r:id="rId8" xr:uid="{982A5FB9-0170-4A3B-BBD6-28E9FE335B81}"/>
-    <hyperlink ref="K13" r:id="rId9" xr:uid="{E9CA8B5F-5737-454C-8DAF-7B9B448463D0}"/>
-    <hyperlink ref="K9" r:id="rId10" xr:uid="{969CFE85-8E26-4547-BDAD-2A529A388871}"/>
-    <hyperlink ref="K10" r:id="rId11" xr:uid="{FA4D526F-05C2-4CB9-A775-5EB01C6BBB24}"/>
-    <hyperlink ref="L9" r:id="rId12" xr:uid="{58EB2157-42C5-425F-A32D-C43C58A00134}"/>
-    <hyperlink ref="L11" r:id="rId13" xr:uid="{C078996D-3669-4F61-9EB1-A0763844F16C}"/>
-    <hyperlink ref="L8" r:id="rId14" xr:uid="{0A6545F6-7AC1-46E7-AAA7-4F06E0E77C8A}"/>
-    <hyperlink ref="K14" r:id="rId15" xr:uid="{7BD30C1C-E9E0-46AB-B011-5EBDB87EC921}"/>
+    <hyperlink ref="N3" r:id="rId1" xr:uid="{A42A59F8-5ED6-43EA-92A2-EA5E5892CA53}"/>
+    <hyperlink ref="N4" r:id="rId2" xr:uid="{B815DDD4-D7AB-45B6-85A9-E3ED8DD47DDD}"/>
+    <hyperlink ref="N5" r:id="rId3" xr:uid="{57DE876B-ED3A-4951-B893-FE7E5FBE8586}"/>
+    <hyperlink ref="N6" r:id="rId4" xr:uid="{3102FAF7-8DC4-4858-A102-06E6E51498DA}"/>
+    <hyperlink ref="N7" r:id="rId5" xr:uid="{77FE26D0-86CF-4CB8-8269-E532DD857590}"/>
+    <hyperlink ref="N8" r:id="rId6" xr:uid="{FEE770DC-D928-4E95-A479-2041B79FDF1C}"/>
+    <hyperlink ref="N11" r:id="rId7" xr:uid="{5016E3AD-CE68-4A01-9BB0-1DA9C8E8368A}"/>
+    <hyperlink ref="N12" r:id="rId8" xr:uid="{982A5FB9-0170-4A3B-BBD6-28E9FE335B81}"/>
+    <hyperlink ref="N13" r:id="rId9" xr:uid="{E9CA8B5F-5737-454C-8DAF-7B9B448463D0}"/>
+    <hyperlink ref="N9" r:id="rId10" xr:uid="{969CFE85-8E26-4547-BDAD-2A529A388871}"/>
+    <hyperlink ref="N10" r:id="rId11" xr:uid="{FA4D526F-05C2-4CB9-A775-5EB01C6BBB24}"/>
+    <hyperlink ref="O9" r:id="rId12" xr:uid="{58EB2157-42C5-425F-A32D-C43C58A00134}"/>
+    <hyperlink ref="O11" r:id="rId13" xr:uid="{C078996D-3669-4F61-9EB1-A0763844F16C}"/>
+    <hyperlink ref="O8" r:id="rId14" xr:uid="{0A6545F6-7AC1-46E7-AAA7-4F06E0E77C8A}"/>
+    <hyperlink ref="N14" r:id="rId15" xr:uid="{7BD30C1C-E9E0-46AB-B011-5EBDB87EC921}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>

--- a/vkg_resources.xlsx
+++ b/vkg_resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82462\files\pro\pypro\vkg_resource_collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AF83E0-C666-4E72-8997-FE5305DCF0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48752A8E-E413-483F-AFD0-0AF13301A445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2775" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
   <si>
     <t>VKG name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +229,14 @@
   </si>
   <si>
     <t>Individual Ontology Statistic (without external ontology)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ontop/ontop-patterns-tutorial/tree/main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easybgee_v14_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +285,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -300,49 +308,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -395,15 +366,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -694,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -733,11 +695,11 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
       <c r="N1" s="18" t="s">
         <v>2</v>
       </c>
@@ -1277,6 +1239,51 @@
         <v>46</v>
       </c>
       <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="14">
+        <v>32</v>
+      </c>
+      <c r="H15" s="14">
+        <v>23</v>
+      </c>
+      <c r="I15" s="14">
+        <v>6</v>
+      </c>
+      <c r="J15" s="14">
+        <v>10</v>
+      </c>
+      <c r="K15" s="14">
+        <v>6</v>
+      </c>
+      <c r="L15" s="14">
+        <v>29</v>
+      </c>
+      <c r="M15" s="14">
+        <v>97474</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1288,7 +1295,7 @@
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="O1 B2:E1048576 O8 O11">
+  <conditionalFormatting sqref="O1 O8 O11 B2:E1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"√"</formula>
     </cfRule>
@@ -1314,8 +1321,9 @@
     <hyperlink ref="O11" r:id="rId13" xr:uid="{C078996D-3669-4F61-9EB1-A0763844F16C}"/>
     <hyperlink ref="O8" r:id="rId14" xr:uid="{0A6545F6-7AC1-46E7-AAA7-4F06E0E77C8A}"/>
     <hyperlink ref="N14" r:id="rId15" xr:uid="{7BD30C1C-E9E0-46AB-B011-5EBDB87EC921}"/>
+    <hyperlink ref="N15" r:id="rId16" xr:uid="{F5D8E568-2174-4C57-BFC5-D0464C072AF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/vkg_resources.xlsx
+++ b/vkg_resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82462\files\pro\pypro\vkg_resource_collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48752A8E-E413-483F-AFD0-0AF13301A445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD8DBDA-8689-4541-9AD3-B68608A0D742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2775" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,7 +659,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -673,7 +673,10 @@
     <col min="7" max="7" width="8.5546875" style="15" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" style="15" customWidth="1"/>
     <col min="9" max="9" width="15.88671875" style="15" customWidth="1"/>
-    <col min="10" max="13" width="12.5546875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" style="15" customWidth="1"/>
     <col min="14" max="14" width="59.21875" style="12" customWidth="1"/>
     <col min="15" max="15" width="25.88671875" style="10" customWidth="1"/>
   </cols>

--- a/vkg_resources.xlsx
+++ b/vkg_resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82462\files\pro\pypro\vkg_resource_collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD8DBDA-8689-4541-9AD3-B68608A0D742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D92AE6-016A-4BF7-A1F3-DD34AAC01247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2775" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
   <si>
     <t>VKG name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,6 +237,14 @@
   </si>
   <si>
     <t>easybgee_v14_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>external ontology</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,16 +284,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -308,12 +329,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -359,12 +406,27 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -656,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -677,41 +739,45 @@
     <col min="11" max="11" width="8.5546875" style="15" customWidth="1"/>
     <col min="12" max="12" width="10.44140625" style="15" customWidth="1"/>
     <col min="13" max="13" width="9.6640625" style="15" customWidth="1"/>
-    <col min="14" max="14" width="59.21875" style="12" customWidth="1"/>
-    <col min="15" max="15" width="25.88671875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="19" style="12" customWidth="1"/>
+    <col min="15" max="15" width="59.21875" style="12" customWidth="1"/>
+    <col min="16" max="16" width="25.88671875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+    <row r="2" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
@@ -748,11 +814,12 @@
       <c r="M2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -791,12 +858,13 @@
       <c r="M3" s="14">
         <v>153823</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="21"/>
+      <c r="O3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -830,12 +898,13 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="21"/>
+      <c r="O4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -869,12 +938,13 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
@@ -908,12 +978,13 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="21"/>
+      <c r="O6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
@@ -947,13 +1018,14 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="21"/>
+      <c r="O7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -986,15 +1058,16 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="21"/>
+      <c r="O8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="P8" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1033,14 +1106,15 @@
       <c r="M9" s="14">
         <v>257271</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="21"/>
+      <c r="O9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="P9" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1074,13 +1148,14 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="21"/>
+      <c r="O10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1113,14 +1188,15 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="21"/>
+      <c r="O11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="P11" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1154,12 +1230,13 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="21"/>
+      <c r="O12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -1193,13 +1270,14 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="21"/>
+      <c r="O13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1238,13 +1316,16 @@
       <c r="M14" s="14">
         <v>51117</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1283,22 +1364,24 @@
       <c r="M15" s="14">
         <v>97474</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="21"/>
+      <c r="O15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="O1:O2"/>
+  <mergeCells count="7">
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="O1 O8 O11 B2:E1048576">
+  <conditionalFormatting sqref="P1 B2:E1048576 P8 P11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"√"</formula>
     </cfRule>
@@ -1309,22 +1392,22 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" xr:uid="{A42A59F8-5ED6-43EA-92A2-EA5E5892CA53}"/>
-    <hyperlink ref="N4" r:id="rId2" xr:uid="{B815DDD4-D7AB-45B6-85A9-E3ED8DD47DDD}"/>
-    <hyperlink ref="N5" r:id="rId3" xr:uid="{57DE876B-ED3A-4951-B893-FE7E5FBE8586}"/>
-    <hyperlink ref="N6" r:id="rId4" xr:uid="{3102FAF7-8DC4-4858-A102-06E6E51498DA}"/>
-    <hyperlink ref="N7" r:id="rId5" xr:uid="{77FE26D0-86CF-4CB8-8269-E532DD857590}"/>
-    <hyperlink ref="N8" r:id="rId6" xr:uid="{FEE770DC-D928-4E95-A479-2041B79FDF1C}"/>
-    <hyperlink ref="N11" r:id="rId7" xr:uid="{5016E3AD-CE68-4A01-9BB0-1DA9C8E8368A}"/>
-    <hyperlink ref="N12" r:id="rId8" xr:uid="{982A5FB9-0170-4A3B-BBD6-28E9FE335B81}"/>
-    <hyperlink ref="N13" r:id="rId9" xr:uid="{E9CA8B5F-5737-454C-8DAF-7B9B448463D0}"/>
-    <hyperlink ref="N9" r:id="rId10" xr:uid="{969CFE85-8E26-4547-BDAD-2A529A388871}"/>
-    <hyperlink ref="N10" r:id="rId11" xr:uid="{FA4D526F-05C2-4CB9-A775-5EB01C6BBB24}"/>
-    <hyperlink ref="O9" r:id="rId12" xr:uid="{58EB2157-42C5-425F-A32D-C43C58A00134}"/>
-    <hyperlink ref="O11" r:id="rId13" xr:uid="{C078996D-3669-4F61-9EB1-A0763844F16C}"/>
-    <hyperlink ref="O8" r:id="rId14" xr:uid="{0A6545F6-7AC1-46E7-AAA7-4F06E0E77C8A}"/>
-    <hyperlink ref="N14" r:id="rId15" xr:uid="{7BD30C1C-E9E0-46AB-B011-5EBDB87EC921}"/>
-    <hyperlink ref="N15" r:id="rId16" xr:uid="{F5D8E568-2174-4C57-BFC5-D0464C072AF4}"/>
+    <hyperlink ref="O3" r:id="rId1" xr:uid="{A42A59F8-5ED6-43EA-92A2-EA5E5892CA53}"/>
+    <hyperlink ref="O4" r:id="rId2" xr:uid="{B815DDD4-D7AB-45B6-85A9-E3ED8DD47DDD}"/>
+    <hyperlink ref="O5" r:id="rId3" xr:uid="{57DE876B-ED3A-4951-B893-FE7E5FBE8586}"/>
+    <hyperlink ref="O6" r:id="rId4" xr:uid="{3102FAF7-8DC4-4858-A102-06E6E51498DA}"/>
+    <hyperlink ref="O7" r:id="rId5" xr:uid="{77FE26D0-86CF-4CB8-8269-E532DD857590}"/>
+    <hyperlink ref="O8" r:id="rId6" xr:uid="{FEE770DC-D928-4E95-A479-2041B79FDF1C}"/>
+    <hyperlink ref="O11" r:id="rId7" xr:uid="{5016E3AD-CE68-4A01-9BB0-1DA9C8E8368A}"/>
+    <hyperlink ref="O12" r:id="rId8" xr:uid="{982A5FB9-0170-4A3B-BBD6-28E9FE335B81}"/>
+    <hyperlink ref="O13" r:id="rId9" xr:uid="{E9CA8B5F-5737-454C-8DAF-7B9B448463D0}"/>
+    <hyperlink ref="O9" r:id="rId10" xr:uid="{969CFE85-8E26-4547-BDAD-2A529A388871}"/>
+    <hyperlink ref="O10" r:id="rId11" xr:uid="{FA4D526F-05C2-4CB9-A775-5EB01C6BBB24}"/>
+    <hyperlink ref="P9" r:id="rId12" xr:uid="{58EB2157-42C5-425F-A32D-C43C58A00134}"/>
+    <hyperlink ref="P11" r:id="rId13" xr:uid="{C078996D-3669-4F61-9EB1-A0763844F16C}"/>
+    <hyperlink ref="P8" r:id="rId14" xr:uid="{0A6545F6-7AC1-46E7-AAA7-4F06E0E77C8A}"/>
+    <hyperlink ref="O14" r:id="rId15" xr:uid="{7BD30C1C-E9E0-46AB-B011-5EBDB87EC921}"/>
+    <hyperlink ref="O15" r:id="rId16" xr:uid="{F5D8E568-2174-4C57-BFC5-D0464C072AF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
